--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/331d9f6799ea1c34/Serginet Startup/Repos/ServerlessWars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveFolderBis\OneDrive\Serginet Startup\Repos\ServerlessWars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D461CA9-0CC0-4A6F-883D-7FF4AAB05BC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BED21B06-7863-4FCE-BF0C-61FD48DF361C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C0A6BD0B-E716-4739-9F3F-5E6DB94E2669}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$N$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Platform</t>
   </si>
@@ -70,6 +73,15 @@
   </si>
   <si>
     <t>Std Deviation</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AWS</t>
   </si>
 </sst>
 </file>
@@ -113,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,473 +443,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246999E2-8D6C-4DC8-ADE1-427EFC9D9FF8}">
-  <dimension ref="B4:L16"/>
+  <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>256</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>12500</v>
+      </c>
+      <c r="I3">
+        <v>102</v>
+      </c>
+      <c r="J3">
+        <v>140</v>
+      </c>
+      <c r="K3">
+        <v>2142</v>
+      </c>
+      <c r="L3">
+        <v>182</v>
+      </c>
+      <c r="M3">
+        <v>48.61</v>
+      </c>
+      <c r="N3">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>256</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>25000</v>
+      </c>
+      <c r="I4">
+        <v>109</v>
+      </c>
+      <c r="J4">
+        <v>139</v>
+      </c>
+      <c r="K4">
+        <v>4611</v>
+      </c>
+      <c r="L4">
+        <v>192</v>
+      </c>
+      <c r="M4">
+        <v>136.69</v>
+      </c>
+      <c r="N4">
+        <v>228.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>256</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>75000</v>
+      </c>
+      <c r="I5">
+        <v>131</v>
+      </c>
+      <c r="J5">
+        <v>139</v>
+      </c>
+      <c r="K5">
+        <v>12508</v>
+      </c>
+      <c r="L5">
+        <v>228</v>
+      </c>
+      <c r="M5">
+        <v>445.42</v>
+      </c>
+      <c r="N5">
+        <v>568.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>512</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>12500</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>142</v>
+      </c>
+      <c r="K6">
+        <v>1533</v>
+      </c>
+      <c r="L6">
+        <v>162</v>
+      </c>
+      <c r="M6">
+        <v>28.87</v>
+      </c>
+      <c r="N6">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>25000</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>8356</v>
+      </c>
+      <c r="L7">
+        <v>175</v>
+      </c>
+      <c r="M7">
+        <v>166.27</v>
+      </c>
+      <c r="N7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>512</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>75000</v>
+      </c>
+      <c r="I8">
+        <v>99</v>
+      </c>
+      <c r="J8">
+        <v>140</v>
+      </c>
+      <c r="K8">
+        <v>5633</v>
+      </c>
+      <c r="L8">
+        <v>179</v>
+      </c>
+      <c r="M8">
+        <v>146.77000000000001</v>
+      </c>
+      <c r="N8">
+        <v>753.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
+        <v>75000</v>
+      </c>
+      <c r="I9">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <v>139</v>
+      </c>
+      <c r="K9">
+        <v>3110</v>
+      </c>
+      <c r="L9">
+        <v>155</v>
+      </c>
+      <c r="M9">
+        <v>36.54</v>
+      </c>
+      <c r="N9">
+        <v>838.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>12500</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
+      </c>
+      <c r="J10">
+        <v>132</v>
+      </c>
+      <c r="K10">
+        <v>1241</v>
+      </c>
+      <c r="L10">
+        <v>144</v>
+      </c>
+      <c r="M10">
+        <v>30.68</v>
+      </c>
+      <c r="N10">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>256</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>25000</v>
+      </c>
+      <c r="I11">
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>132</v>
+      </c>
+      <c r="K11">
+        <v>2886</v>
+      </c>
+      <c r="L11">
+        <v>147</v>
+      </c>
+      <c r="M11">
+        <v>40.07</v>
+      </c>
+      <c r="N11">
+        <v>288.89999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="E12">
         <v>256</v>
       </c>
-      <c r="D7">
-        <v>256</v>
-      </c>
-      <c r="E7">
-        <v>256</v>
-      </c>
-      <c r="F7">
-        <v>512</v>
-      </c>
-      <c r="G7">
-        <v>512</v>
-      </c>
-      <c r="H7">
-        <v>512</v>
-      </c>
-      <c r="I7">
-        <v>1024</v>
-      </c>
-      <c r="J7">
-        <v>256</v>
-      </c>
-      <c r="K7">
-        <v>256</v>
-      </c>
-      <c r="L7">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <v>75000</v>
+      </c>
+      <c r="I12">
+        <v>87</v>
+      </c>
+      <c r="J12">
+        <v>131</v>
+      </c>
+      <c r="K12">
+        <v>6157</v>
+      </c>
+      <c r="L12">
+        <v>147</v>
+      </c>
+      <c r="M12">
+        <v>83.65</v>
+      </c>
+      <c r="N12">
+        <v>854.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>12500</v>
+      </c>
+      <c r="I13">
+        <v>146</v>
+      </c>
+      <c r="J13">
+        <v>158</v>
+      </c>
+      <c r="K13">
+        <v>6536</v>
+      </c>
+      <c r="L13">
+        <v>267</v>
+      </c>
+      <c r="M13">
+        <v>224.62</v>
+      </c>
+      <c r="N13">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14">
+        <v>25000</v>
+      </c>
+      <c r="I14">
+        <v>195</v>
+      </c>
+      <c r="J14">
+        <v>155</v>
+      </c>
+      <c r="K14">
+        <v>8412</v>
+      </c>
+      <c r="L14">
+        <v>357</v>
+      </c>
+      <c r="M14">
+        <v>295.10000000000002</v>
+      </c>
+      <c r="N14">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
         <v>150</v>
       </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>75000</v>
+      </c>
+      <c r="I15">
+        <v>425</v>
+      </c>
+      <c r="J15">
+        <v>154</v>
+      </c>
+      <c r="K15">
+        <v>9573</v>
+      </c>
+      <c r="L15">
+        <v>411</v>
+      </c>
+      <c r="M15">
+        <v>406.61</v>
+      </c>
+      <c r="N15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
         <v>150</v>
       </c>
-      <c r="I8">
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
         <v>150</v>
       </c>
-      <c r="J8">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="L8">
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>500</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-      <c r="G9">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>500</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9">
-        <v>500</v>
-      </c>
-      <c r="K9">
-        <v>500</v>
-      </c>
-      <c r="L9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>12500</v>
-      </c>
-      <c r="D10">
-        <v>25000</v>
-      </c>
-      <c r="E10">
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
         <v>75000</v>
       </c>
-      <c r="F10">
-        <v>12500</v>
-      </c>
-      <c r="G10">
-        <v>25000</v>
-      </c>
-      <c r="H10">
-        <v>75000</v>
-      </c>
-      <c r="I10">
-        <v>75000</v>
-      </c>
-      <c r="J10">
-        <v>12500</v>
-      </c>
-      <c r="K10">
-        <v>25000</v>
-      </c>
-      <c r="L10">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <v>109</v>
-      </c>
-      <c r="E11">
-        <v>131</v>
-      </c>
-      <c r="F11">
-        <v>90</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>99</v>
-      </c>
-      <c r="I11">
-        <v>89</v>
-      </c>
-      <c r="J11">
-        <v>82</v>
-      </c>
-      <c r="K11">
-        <v>86</v>
-      </c>
-      <c r="L11">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>140</v>
-      </c>
-      <c r="D12">
-        <v>139</v>
-      </c>
-      <c r="E12">
-        <v>139</v>
-      </c>
-      <c r="F12">
-        <v>142</v>
-      </c>
-      <c r="G12">
-        <v>140</v>
-      </c>
-      <c r="H12">
-        <v>140</v>
-      </c>
-      <c r="I12">
-        <v>139</v>
-      </c>
-      <c r="J12">
-        <v>132</v>
-      </c>
-      <c r="K12">
-        <v>132</v>
-      </c>
-      <c r="L12">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>2142</v>
-      </c>
-      <c r="D13">
-        <v>4611</v>
-      </c>
-      <c r="E13">
-        <v>12508</v>
-      </c>
-      <c r="F13">
-        <v>1533</v>
-      </c>
-      <c r="G13">
-        <v>8356</v>
-      </c>
-      <c r="H13">
-        <v>5633</v>
-      </c>
-      <c r="I13">
-        <v>3110</v>
-      </c>
-      <c r="J13">
-        <v>1241</v>
-      </c>
-      <c r="K13">
-        <v>2886</v>
-      </c>
-      <c r="L13">
-        <v>6157</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>182</v>
-      </c>
-      <c r="D14">
-        <v>192</v>
-      </c>
-      <c r="E14">
-        <v>228</v>
-      </c>
-      <c r="F14">
-        <v>162</v>
-      </c>
-      <c r="G14">
-        <v>175</v>
-      </c>
-      <c r="H14">
-        <v>179</v>
-      </c>
-      <c r="I14">
-        <v>155</v>
-      </c>
-      <c r="J14">
-        <v>144</v>
-      </c>
-      <c r="K14">
-        <v>147</v>
-      </c>
-      <c r="L14">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>48.61</v>
-      </c>
-      <c r="D15">
-        <v>136.69</v>
-      </c>
-      <c r="E15">
-        <v>445.42</v>
-      </c>
-      <c r="F15">
-        <v>28.87</v>
-      </c>
-      <c r="G15">
-        <v>166.27</v>
-      </c>
-      <c r="H15">
-        <v>146.77000000000001</v>
-      </c>
-      <c r="I15">
-        <v>36.54</v>
-      </c>
-      <c r="J15">
-        <v>30.68</v>
-      </c>
-      <c r="K15">
-        <v>40.07</v>
-      </c>
-      <c r="L15">
-        <v>83.65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>122.1</v>
-      </c>
-      <c r="D16">
-        <v>228.3</v>
-      </c>
-      <c r="E16">
-        <v>568.4</v>
-      </c>
-      <c r="F16">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="G16">
-        <v>248</v>
-      </c>
-      <c r="H16">
-        <v>753.7</v>
-      </c>
-      <c r="I16">
-        <v>838.7</v>
-      </c>
-      <c r="J16">
-        <v>152.6</v>
-      </c>
-      <c r="K16">
-        <v>288.89999999999998</v>
-      </c>
-      <c r="L16">
-        <v>854.4</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:N18" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveFolderBis\OneDrive\Serginet Startup\Repos\ServerlessWars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/331d9f6799ea1c34/Serginet Startup/Repos/ServerlessWars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BED21B06-7863-4FCE-BF0C-61FD48DF361C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15046972-54B1-43ED-A5D3-01AE047717F4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C0A6BD0B-E716-4739-9F3F-5E6DB94E2669}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$N$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$N$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>Platform</t>
   </si>
@@ -443,11 +443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246999E2-8D6C-4DC8-ADE1-427EFC9D9FF8}">
-  <dimension ref="B2:N18"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1053,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>500</v>
@@ -1061,8 +1059,26 @@
       <c r="H16">
         <v>12500</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>93</v>
+      </c>
+      <c r="J16">
+        <v>118</v>
+      </c>
+      <c r="K16">
+        <v>1877</v>
+      </c>
+      <c r="L16">
+        <v>166</v>
+      </c>
+      <c r="M16">
+        <v>43.97</v>
+      </c>
+      <c r="N16">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>500</v>
@@ -1084,8 +1100,26 @@
       <c r="H17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>95</v>
+      </c>
+      <c r="J17">
+        <v>118</v>
+      </c>
+      <c r="K17">
+        <v>1586</v>
+      </c>
+      <c r="L17">
+        <v>171</v>
+      </c>
+      <c r="M17">
+        <v>50.6</v>
+      </c>
+      <c r="N17">
+        <v>260.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1107,9 +1141,150 @@
       <c r="H18">
         <v>75000</v>
       </c>
+      <c r="I18">
+        <v>109</v>
+      </c>
+      <c r="J18">
+        <v>118</v>
+      </c>
+      <c r="K18">
+        <v>2502</v>
+      </c>
+      <c r="L18">
+        <v>196</v>
+      </c>
+      <c r="M18">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="N18">
+        <v>683.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="H19">
+        <v>12500</v>
+      </c>
+      <c r="I19">
+        <v>73</v>
+      </c>
+      <c r="J19">
+        <v>115</v>
+      </c>
+      <c r="K19">
+        <v>1167</v>
+      </c>
+      <c r="L19">
+        <v>127</v>
+      </c>
+      <c r="M19">
+        <v>31.58</v>
+      </c>
+      <c r="N19">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20">
+        <v>25000</v>
+      </c>
+      <c r="I20">
+        <v>74</v>
+      </c>
+      <c r="J20">
+        <v>114</v>
+      </c>
+      <c r="K20">
+        <v>950</v>
+      </c>
+      <c r="L20">
+        <v>129</v>
+      </c>
+      <c r="M20">
+        <v>36.24</v>
+      </c>
+      <c r="N20">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="H21">
+        <v>75000</v>
+      </c>
+      <c r="I21">
+        <v>84</v>
+      </c>
+      <c r="J21">
+        <v>114</v>
+      </c>
+      <c r="K21">
+        <v>1998</v>
+      </c>
+      <c r="L21">
+        <v>141</v>
+      </c>
+      <c r="M21">
+        <v>66.73</v>
+      </c>
+      <c r="N21">
+        <v>885.9</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:N18" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
+  <autoFilter ref="B2:N21" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/331d9f6799ea1c34/Serginet Startup/Repos/ServerlessWars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveFolderBis\OneDrive\Serginet Startup\Repos\ServerlessWars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15046972-54B1-43ED-A5D3-01AE047717F4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B6A7490-8567-4472-AD4C-E12381498C5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C0A6BD0B-E716-4739-9F3F-5E6DB94E2669}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$N$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$N$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Platform</t>
   </si>
@@ -75,13 +75,19 @@
     <t>Std Deviation</t>
   </si>
   <si>
-    <t>Azure</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>AWS</t>
+  </si>
+  <si>
+    <t>Azure Js</t>
+  </si>
+  <si>
+    <t>Azure .NET Core 2</t>
+  </si>
+  <si>
+    <t>Azure Js No Insight</t>
   </si>
 </sst>
 </file>
@@ -443,13 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246999E2-8D6C-4DC8-ADE1-427EFC9D9FF8}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
@@ -916,16 +925,16 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -937,36 +946,36 @@
         <v>12500</v>
       </c>
       <c r="I13">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J13">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K13">
-        <v>6536</v>
+        <v>2319</v>
       </c>
       <c r="L13">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="M13">
-        <v>224.62</v>
+        <v>211.99</v>
       </c>
       <c r="N13">
-        <v>85.5</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -978,36 +987,36 @@
         <v>25000</v>
       </c>
       <c r="I14">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="J14">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K14">
-        <v>8412</v>
+        <v>12233</v>
       </c>
       <c r="L14">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="M14">
-        <v>295.10000000000002</v>
+        <v>299.88</v>
       </c>
       <c r="N14">
-        <v>127.9</v>
+        <v>170.9</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
       </c>
       <c r="F15">
         <v>150</v>
@@ -1019,27 +1028,27 @@
         <v>75000</v>
       </c>
       <c r="I15">
-        <v>425</v>
+        <v>183</v>
       </c>
       <c r="J15">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K15">
-        <v>9573</v>
+        <v>26503</v>
       </c>
       <c r="L15">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="M15">
-        <v>406.61</v>
+        <v>561.71</v>
       </c>
       <c r="N15">
-        <v>333</v>
+        <v>409.3</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1048,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -1060,27 +1069,27 @@
         <v>12500</v>
       </c>
       <c r="I16">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="J16">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="K16">
-        <v>1877</v>
+        <v>6678</v>
       </c>
       <c r="L16">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="M16">
-        <v>43.97</v>
+        <v>257.42</v>
       </c>
       <c r="N16">
-        <v>133.69999999999999</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1089,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -1101,27 +1110,27 @@
         <v>25000</v>
       </c>
       <c r="I17">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="J17">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="K17">
-        <v>1586</v>
+        <v>6101</v>
       </c>
       <c r="L17">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="M17">
-        <v>50.6</v>
+        <v>265.44</v>
       </c>
       <c r="N17">
-        <v>260.8</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1130,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>150</v>
@@ -1142,36 +1151,36 @@
         <v>75000</v>
       </c>
       <c r="I18">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="J18">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="K18">
-        <v>2502</v>
+        <v>27122</v>
       </c>
       <c r="L18">
-        <v>196</v>
+        <v>370</v>
       </c>
       <c r="M18">
-        <v>79.569999999999993</v>
+        <v>738.41</v>
       </c>
       <c r="N18">
-        <v>683.2</v>
+        <v>344.7</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -1183,36 +1192,36 @@
         <v>12500</v>
       </c>
       <c r="I19">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="J19">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K19">
-        <v>1167</v>
+        <v>1877</v>
       </c>
       <c r="L19">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="M19">
-        <v>31.58</v>
+        <v>43.97</v>
       </c>
       <c r="N19">
-        <v>169.7</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -1224,36 +1233,36 @@
         <v>25000</v>
       </c>
       <c r="I20">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="J20">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20">
-        <v>950</v>
+        <v>1586</v>
       </c>
       <c r="L20">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="M20">
-        <v>36.24</v>
+        <v>50.6</v>
       </c>
       <c r="N20">
-        <v>334</v>
+        <v>260.8</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>150</v>
@@ -1265,26 +1274,218 @@
         <v>75000</v>
       </c>
       <c r="I21">
+        <v>109</v>
+      </c>
+      <c r="J21">
+        <v>118</v>
+      </c>
+      <c r="K21">
+        <v>2502</v>
+      </c>
+      <c r="L21">
+        <v>196</v>
+      </c>
+      <c r="M21">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="N21">
+        <v>683.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22">
+        <v>12500</v>
+      </c>
+      <c r="I22">
+        <v>73</v>
+      </c>
+      <c r="J22">
+        <v>115</v>
+      </c>
+      <c r="K22">
+        <v>1167</v>
+      </c>
+      <c r="L22">
+        <v>127</v>
+      </c>
+      <c r="M22">
+        <v>31.58</v>
+      </c>
+      <c r="N22">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>500</v>
+      </c>
+      <c r="H23">
+        <v>25000</v>
+      </c>
+      <c r="I23">
+        <v>74</v>
+      </c>
+      <c r="J23">
+        <v>114</v>
+      </c>
+      <c r="K23">
+        <v>950</v>
+      </c>
+      <c r="L23">
+        <v>129</v>
+      </c>
+      <c r="M23">
+        <v>36.24</v>
+      </c>
+      <c r="N23">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="H24">
+        <v>75000</v>
+      </c>
+      <c r="I24">
         <v>84</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>114</v>
       </c>
-      <c r="K21">
+      <c r="K24">
         <v>1998</v>
       </c>
-      <c r="L21">
+      <c r="L24">
         <v>141</v>
       </c>
-      <c r="M21">
+      <c r="M24">
         <v>66.73</v>
       </c>
-      <c r="N21">
+      <c r="N24">
         <v>885.9</v>
       </c>
     </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>500</v>
+      </c>
+      <c r="H25">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>500</v>
+      </c>
+      <c r="H26">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:N21" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
+  <autoFilter ref="B2:N24" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveFolderBis\OneDrive\Serginet Startup\Repos\ServerlessWars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/331d9f6799ea1c34/Serginet Startup/Repos/ServerlessWars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B6A7490-8567-4472-AD4C-E12381498C5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A99D55F8-E70C-4550-8AC8-6F459F60BF29}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C0A6BD0B-E716-4739-9F3F-5E6DB94E2669}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
   <si>
     <t>Platform</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Azure Js No Insight</t>
+  </si>
+  <si>
+    <t>Azure .NET Core 2 No Insight</t>
   </si>
 </sst>
 </file>
@@ -449,16 +452,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246999E2-8D6C-4DC8-ADE1-427EFC9D9FF8}">
-  <dimension ref="B2:N27"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
@@ -472,45 +476,86 @@
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>256</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>12500</v>
+      </c>
+      <c r="I2">
+        <v>102</v>
+      </c>
+      <c r="J2">
+        <v>140</v>
+      </c>
+      <c r="K2">
+        <v>2142</v>
+      </c>
+      <c r="L2">
+        <v>182</v>
+      </c>
+      <c r="M2">
+        <v>48.61</v>
+      </c>
+      <c r="N2">
+        <v>122.1</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -527,31 +572,31 @@
         <v>256</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>500</v>
       </c>
       <c r="H3">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I3">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K3">
-        <v>2142</v>
+        <v>4611</v>
       </c>
       <c r="L3">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M3">
-        <v>48.61</v>
+        <v>136.69</v>
       </c>
       <c r="N3">
-        <v>122.1</v>
+        <v>228.3</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -568,31 +613,31 @@
         <v>256</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G4">
         <v>500</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I4">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="J4">
         <v>139</v>
       </c>
       <c r="K4">
-        <v>4611</v>
+        <v>12508</v>
       </c>
       <c r="L4">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="M4">
-        <v>136.69</v>
+        <v>445.42</v>
       </c>
       <c r="N4">
-        <v>228.3</v>
+        <v>568.4</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -606,34 +651,34 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="F5">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>500</v>
       </c>
       <c r="H5">
-        <v>75000</v>
+        <v>12500</v>
       </c>
       <c r="I5">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="J5">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K5">
-        <v>12508</v>
+        <v>1533</v>
       </c>
       <c r="L5">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="M5">
-        <v>445.42</v>
+        <v>28.87</v>
       </c>
       <c r="N5">
-        <v>568.4</v>
+        <v>137.80000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -650,31 +695,31 @@
         <v>512</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>500</v>
       </c>
       <c r="H6">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K6">
-        <v>1533</v>
+        <v>8356</v>
       </c>
       <c r="L6">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M6">
-        <v>28.87</v>
+        <v>166.27</v>
       </c>
       <c r="N6">
-        <v>137.80000000000001</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -691,31 +736,31 @@
         <v>512</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
       <c r="H7">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7">
         <v>140</v>
       </c>
       <c r="K7">
-        <v>8356</v>
+        <v>5633</v>
       </c>
       <c r="L7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M7">
-        <v>166.27</v>
+        <v>146.77000000000001</v>
       </c>
       <c r="N7">
-        <v>248</v>
+        <v>753.7</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -729,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="F8">
         <v>150</v>
@@ -741,25 +786,25 @@
         <v>75000</v>
       </c>
       <c r="I8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8">
-        <v>5633</v>
+        <v>3110</v>
       </c>
       <c r="L8">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="M8">
-        <v>146.77000000000001</v>
+        <v>36.54</v>
       </c>
       <c r="N8">
-        <v>753.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+        <v>838.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -767,40 +812,40 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>500</v>
       </c>
       <c r="H9">
-        <v>75000</v>
+        <v>12500</v>
       </c>
       <c r="I9">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J9">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K9">
-        <v>3110</v>
+        <v>1241</v>
       </c>
       <c r="L9">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M9">
-        <v>36.54</v>
+        <v>30.68</v>
       </c>
       <c r="N9">
-        <v>838.7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -814,34 +859,34 @@
         <v>256</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>500</v>
       </c>
       <c r="H10">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>132</v>
       </c>
       <c r="K10">
-        <v>1241</v>
+        <v>2886</v>
       </c>
       <c r="L10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M10">
-        <v>30.68</v>
+        <v>40.07</v>
       </c>
       <c r="N10">
-        <v>152.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>288.89999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -855,75 +900,75 @@
         <v>256</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <v>500</v>
       </c>
       <c r="H11">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11">
-        <v>2886</v>
+        <v>6157</v>
       </c>
       <c r="L11">
         <v>147</v>
       </c>
       <c r="M11">
-        <v>40.07</v>
+        <v>83.65</v>
       </c>
       <c r="N11">
-        <v>288.89999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>854.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>256</v>
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>500</v>
       </c>
       <c r="H12">
-        <v>75000</v>
+        <v>12500</v>
       </c>
       <c r="I12">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="J12">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K12">
-        <v>6157</v>
+        <v>2319</v>
       </c>
       <c r="L12">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="M12">
-        <v>83.65</v>
+        <v>211.99</v>
       </c>
       <c r="N12">
-        <v>854.4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -937,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>500</v>
       </c>
       <c r="H13">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I13">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="J13">
         <v>141</v>
       </c>
       <c r="K13">
-        <v>2319</v>
+        <v>12233</v>
       </c>
       <c r="L13">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M13">
-        <v>211.99</v>
+        <v>299.88</v>
       </c>
       <c r="N13">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -978,36 +1023,36 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G14">
         <v>500</v>
       </c>
       <c r="H14">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I14">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="J14">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K14">
-        <v>12233</v>
+        <v>26503</v>
       </c>
       <c r="L14">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="M14">
-        <v>299.88</v>
+        <v>561.71</v>
       </c>
       <c r="N14">
-        <v>170.9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>409.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1019,34 +1064,34 @@
         <v>15</v>
       </c>
       <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>12500</v>
+      </c>
+      <c r="I15">
+        <v>152</v>
+      </c>
+      <c r="J15">
         <v>150</v>
       </c>
-      <c r="G15">
-        <v>500</v>
-      </c>
-      <c r="H15">
-        <v>75000</v>
-      </c>
-      <c r="I15">
-        <v>183</v>
-      </c>
-      <c r="J15">
-        <v>140</v>
-      </c>
       <c r="K15">
-        <v>26503</v>
+        <v>6678</v>
       </c>
       <c r="L15">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="M15">
-        <v>561.71</v>
+        <v>257.42</v>
       </c>
       <c r="N15">
-        <v>409.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1060,34 +1105,34 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>500</v>
       </c>
       <c r="H16">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I16">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J16">
         <v>150</v>
       </c>
       <c r="K16">
-        <v>6678</v>
+        <v>6101</v>
       </c>
       <c r="L16">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M16">
-        <v>257.42</v>
+        <v>265.44</v>
       </c>
       <c r="N16">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1101,36 +1146,36 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G17">
         <v>500</v>
       </c>
       <c r="H17">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I17">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="J17">
         <v>150</v>
       </c>
       <c r="K17">
-        <v>6101</v>
+        <v>27122</v>
       </c>
       <c r="L17">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="M17">
-        <v>265.44</v>
+        <v>738.41</v>
       </c>
       <c r="N17">
-        <v>162.5</v>
+        <v>344.7</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1142,31 +1187,31 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>500</v>
       </c>
       <c r="H18">
-        <v>75000</v>
+        <v>12500</v>
       </c>
       <c r="I18">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="J18">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="K18">
-        <v>27122</v>
+        <v>1877</v>
       </c>
       <c r="L18">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="M18">
-        <v>738.41</v>
+        <v>43.97</v>
       </c>
       <c r="N18">
-        <v>344.7</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -1183,31 +1228,31 @@
         <v>15</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>500</v>
       </c>
       <c r="H19">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I19">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J19">
         <v>118</v>
       </c>
       <c r="K19">
-        <v>1877</v>
+        <v>1586</v>
       </c>
       <c r="L19">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M19">
-        <v>43.97</v>
+        <v>50.6</v>
       </c>
       <c r="N19">
-        <v>133.69999999999999</v>
+        <v>260.8</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -1224,34 +1269,34 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G20">
         <v>500</v>
       </c>
       <c r="H20">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I20">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J20">
         <v>118</v>
       </c>
       <c r="K20">
-        <v>1586</v>
+        <v>2502</v>
       </c>
       <c r="L20">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M20">
-        <v>50.6</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="N20">
-        <v>260.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>683.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1259,40 +1304,40 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>500</v>
       </c>
       <c r="H21">
-        <v>75000</v>
+        <v>12500</v>
       </c>
       <c r="I21">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="J21">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K21">
-        <v>2502</v>
+        <v>1167</v>
       </c>
       <c r="L21">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="M21">
-        <v>79.569999999999993</v>
+        <v>31.58</v>
       </c>
       <c r="N21">
-        <v>683.2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1306,34 +1351,34 @@
         <v>15</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>500</v>
       </c>
       <c r="H22">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I22">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22">
-        <v>1167</v>
+        <v>950</v>
       </c>
       <c r="L22">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22">
-        <v>31.58</v>
+        <v>36.24</v>
       </c>
       <c r="N22">
-        <v>169.7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1347,72 +1392,72 @@
         <v>15</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G23">
         <v>500</v>
       </c>
       <c r="H23">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="I23">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J23">
         <v>114</v>
       </c>
       <c r="K23">
-        <v>950</v>
+        <v>1998</v>
       </c>
       <c r="L23">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M23">
-        <v>36.24</v>
+        <v>66.73</v>
       </c>
       <c r="N23">
-        <v>334</v>
+        <v>885.9</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>500</v>
       </c>
       <c r="H24">
-        <v>75000</v>
+        <v>12500</v>
       </c>
       <c r="I24">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="J24">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="K24">
-        <v>1998</v>
+        <v>2631</v>
       </c>
       <c r="L24">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="M24">
-        <v>66.73</v>
+        <v>215.81</v>
       </c>
       <c r="N24">
-        <v>885.9</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -1429,13 +1474,31 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>500</v>
       </c>
       <c r="H25">
-        <v>12500</v>
+        <v>25000</v>
+      </c>
+      <c r="I25">
+        <v>142</v>
+      </c>
+      <c r="J25">
+        <v>141</v>
+      </c>
+      <c r="K25">
+        <v>8238</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25">
+        <v>278.86</v>
+      </c>
+      <c r="N25">
+        <v>175.7</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -1452,18 +1515,36 @@
         <v>15</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G26">
         <v>500</v>
       </c>
       <c r="H26">
-        <v>25000</v>
+        <v>75000</v>
+      </c>
+      <c r="I26">
+        <v>196</v>
+      </c>
+      <c r="J26">
+        <v>125</v>
+      </c>
+      <c r="K26">
+        <v>16534</v>
+      </c>
+      <c r="L26">
+        <v>352</v>
+      </c>
+      <c r="M26">
+        <v>329.05</v>
+      </c>
+      <c r="N26">
+        <v>382.3</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1475,17 +1556,131 @@
         <v>15</v>
       </c>
       <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27">
+        <v>12500</v>
+      </c>
+      <c r="I27">
+        <v>110</v>
+      </c>
+      <c r="J27">
+        <v>118</v>
+      </c>
+      <c r="K27">
+        <v>1387</v>
+      </c>
+      <c r="L27">
+        <v>198</v>
+      </c>
+      <c r="M27">
+        <v>162.11000000000001</v>
+      </c>
+      <c r="N27">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28">
+        <v>25000</v>
+      </c>
+      <c r="I28">
+        <v>136</v>
+      </c>
+      <c r="J28">
+        <v>118</v>
+      </c>
+      <c r="K28">
+        <v>14452</v>
+      </c>
+      <c r="L28">
+        <v>226</v>
+      </c>
+      <c r="M28">
+        <v>434.44</v>
+      </c>
+      <c r="N28">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
         <v>150</v>
       </c>
-      <c r="G27">
-        <v>500</v>
-      </c>
-      <c r="H27">
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
         <v>75000</v>
       </c>
+      <c r="I29">
+        <v>176</v>
+      </c>
+      <c r="J29">
+        <v>119</v>
+      </c>
+      <c r="K29">
+        <v>19111</v>
+      </c>
+      <c r="L29">
+        <v>289</v>
+      </c>
+      <c r="M29">
+        <v>484.63</v>
+      </c>
+      <c r="N29">
+        <v>425.2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:N24" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
+  <autoFilter ref="B1:N29" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AWS"/>
+        <filter val="Azure .NET Core 2 No Insight"/>
+        <filter val="Azure Js No Insight"/>
+        <filter val="Google"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/331d9f6799ea1c34/Serginet Startup/Repos/ServerlessWars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio.navarro\OneDrive\Serginet Startup\Repos\ServerlessWars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A99D55F8-E70C-4550-8AC8-6F459F60BF29}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="10_ncr:8100000_{A99D55F8-E70C-4550-8AC8-6F459F60BF29}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{652BE4B9-7DA2-4AB7-B0EE-68D372185F29}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C0A6BD0B-E716-4739-9F3F-5E6DB94E2669}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C0A6BD0B-E716-4739-9F3F-5E6DB94E2669}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos grafico" sheetId="5" r:id="rId2"/>
+    <sheet name="Throughtput" sheetId="6" r:id="rId3"/>
+    <sheet name="Average" sheetId="7" r:id="rId4"/>
+    <sheet name="Min y max" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Datos grafico'!$B$1:$N$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Datos raw'!$B$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="44" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>Platform</t>
   </si>
@@ -92,6 +101,27 @@
   <si>
     <t>Azure .NET Core 2 No Insight</t>
   </si>
+  <si>
+    <t>Suma de Min</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Throuhgput (reqs/sec)</t>
+  </si>
+  <si>
+    <t>Average (ms)</t>
+  </si>
+  <si>
+    <t>Suma de Max</t>
+  </si>
 </sst>
 </file>
 
@@ -134,10 +164,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,6 +188,5891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results.xlsx]Throughtput!TablaDinámica17</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughtput!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughtput!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughtput!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-187A-4356-B89A-B46F813D4E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughtput!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure .NET Core 2 No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughtput!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughtput!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>425.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-187A-4356-B89A-B46F813D4E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughtput!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Js No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughtput!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughtput!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>382.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-187A-4356-B89A-B46F813D4E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughtput!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughtput!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughtput!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>137.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>753.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-187A-4356-B89A-B46F813D4E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213534728"/>
+        <c:axId val="213536040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213534728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213536040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213536040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213534728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results.xlsx]Average!TablaDinámica17</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Average!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2421-4472-B9F4-DF4F101BAEBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure .NET Core 2 No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Average!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2421-4472-B9F4-DF4F101BAEBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Js No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Average!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2421-4472-B9F4-DF4F101BAEBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Average!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Average!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Average!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2421-4472-B9F4-DF4F101BAEBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213534728"/>
+        <c:axId val="213536040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213534728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213536040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213536040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213534728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results.xlsx]Min y max!TablaDinámica17</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CD0-47D6-A597-2573EE6070C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure .NET Core 2 No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CD0-47D6-A597-2573EE6070C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Js No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CD0-47D6-A597-2573EE6070C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2CD0-47D6-A597-2573EE6070C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213534728"/>
+        <c:axId val="213536040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213534728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213536040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213536040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213534728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results.xlsx]Min y max!TablaDinámica18</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$I$3:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACA3-4E3B-AA54-2B6C8E997973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure .NET Core 2 No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$I$3:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACA3-4E3B-AA54-2B6C8E997973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Js No Insight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$I$3:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACA3-4E3B-AA54-2B6C8E997973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Min y max'!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Min y max'!$I$3:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Min y max'!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACA3-4E3B-AA54-2B6C8E997973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="815410392"/>
+        <c:axId val="815413672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815410392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815413672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815413672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815410392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A993E99-5298-4F8C-BA85-0181F9421C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBC102-BDDE-43F6-8FF9-3DE6E14EBCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4125F0D-AF3A-4C2A-8B62-BE5E1F403EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28753789-FED8-4B17-B2C0-EF4228D1294F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sergio Navarro" refreshedDate="43255.366883449075" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12" xr:uid="{836A1347-B1D7-49D5-9A7B-B51EC0DECB1B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:N13" sheet="Datos grafico"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Platform" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Google"/>
+        <s v="AWS"/>
+        <s v="Azure Js No Insight"/>
+        <s v="Azure .NET Core 2 No Insight"/>
+        <s v="Azure .NET Core 2" u="1"/>
+        <s v="Azure Js" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Function" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Base number" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Memory" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="512" maxValue="512"/>
+    </cacheField>
+    <cacheField name="Users" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="150" count="3">
+        <n v="25"/>
+        <n v="50"/>
+        <n v="150"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Requests per user" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="500"/>
+    </cacheField>
+    <cacheField name="Number of requests" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12500" maxValue="75000"/>
+    </cacheField>
+    <cacheField name="Test duration" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="196"/>
+    </cacheField>
+    <cacheField name="Min" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="118" maxValue="142"/>
+    </cacheField>
+    <cacheField name="Max" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1387" maxValue="19111"/>
+    </cacheField>
+    <cacheField name="Average" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="162" maxValue="352"/>
+    </cacheField>
+    <cacheField name="Std Deviation" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="28.87" maxValue="484.63"/>
+    </cacheField>
+    <cacheField name="Throuhgput (req/sec)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="92.4" maxValue="753.7"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <x v="0"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <n v="512"/>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="12500"/>
+    <n v="90"/>
+    <n v="142"/>
+    <n v="1533"/>
+    <n v="162"/>
+    <n v="28.87"/>
+    <n v="137.80000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <n v="512"/>
+    <x v="1"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <n v="100"/>
+    <n v="140"/>
+    <n v="8356"/>
+    <n v="175"/>
+    <n v="166.27"/>
+    <n v="248"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <n v="512"/>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="75000"/>
+    <n v="99"/>
+    <n v="140"/>
+    <n v="5633"/>
+    <n v="179"/>
+    <n v="146.77000000000001"/>
+    <n v="753.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="12500"/>
+    <n v="93"/>
+    <n v="118"/>
+    <n v="1877"/>
+    <n v="166"/>
+    <n v="43.97"/>
+    <n v="133.69999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="1"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <n v="95"/>
+    <n v="118"/>
+    <n v="1586"/>
+    <n v="171"/>
+    <n v="50.6"/>
+    <n v="260.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="75000"/>
+    <n v="109"/>
+    <n v="118"/>
+    <n v="2502"/>
+    <n v="196"/>
+    <n v="79.569999999999993"/>
+    <n v="683.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="12500"/>
+    <n v="135"/>
+    <n v="140"/>
+    <n v="2631"/>
+    <n v="237"/>
+    <n v="215.81"/>
+    <n v="92.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="1"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <n v="142"/>
+    <n v="141"/>
+    <n v="8238"/>
+    <n v="250"/>
+    <n v="278.86"/>
+    <n v="175.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="75000"/>
+    <n v="196"/>
+    <n v="125"/>
+    <n v="16534"/>
+    <n v="352"/>
+    <n v="329.05"/>
+    <n v="382.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="12500"/>
+    <n v="110"/>
+    <n v="118"/>
+    <n v="1387"/>
+    <n v="198"/>
+    <n v="162.11000000000001"/>
+    <n v="113.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="1"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <n v="136"/>
+    <n v="118"/>
+    <n v="14452"/>
+    <n v="226"/>
+    <n v="434.44"/>
+    <n v="183.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="MathGET"/>
+    <n v="3"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="75000"/>
+    <n v="176"/>
+    <n v="119"/>
+    <n v="19111"/>
+    <n v="289"/>
+    <n v="484.63"/>
+    <n v="425.2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{885D5FBA-BA54-4497-B096-94503D07146F}" name="TablaDinámica17" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item h="1" m="1" x="4"/>
+        <item x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Throuhgput (reqs/sec)" fld="12" baseField="0" baseItem="2"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9ED5A5A-2E20-4EE5-B586-AE0BEEC3E717}" name="TablaDinámica17" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A1:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item h="1" m="1" x="4"/>
+        <item x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average (ms)" fld="10" baseField="4" baseItem="2"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FC2D25B-D87E-4BBB-992A-6A937F442823}" name="TablaDinámica18" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I1:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Max" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC76D4C8-4169-4C4D-A4E1-87F18638AC4F}" name="TablaDinámica17" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A1:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item h="1" m="1" x="4"/>
+        <item x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Min" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,31 +6372,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246999E2-8D6C-4DC8-ADE1-427EFC9D9FF8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +6436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -558,7 +6477,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -599,7 +6518,7 @@
         <v>228.3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -640,7 +6559,7 @@
         <v>568.4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +6600,7 @@
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -722,7 +6641,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -763,7 +6682,7 @@
         <v>753.7</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -804,7 +6723,7 @@
         <v>838.7</v>
       </c>
     </row>
-    <row r="9" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -845,7 +6764,7 @@
         <v>152.6</v>
       </c>
     </row>
-    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -886,7 +6805,7 @@
         <v>288.89999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -927,7 +6846,7 @@
         <v>854.4</v>
       </c>
     </row>
-    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -968,7 +6887,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +6928,7 @@
         <v>170.9</v>
       </c>
     </row>
-    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +6969,7 @@
         <v>409.3</v>
       </c>
     </row>
-    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1091,7 +7010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1132,7 +7051,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +7092,7 @@
         <v>344.7</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1214,7 +7133,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +7174,7 @@
         <v>260.8</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +7215,7 @@
         <v>683.2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +7256,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +7297,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +7338,7 @@
         <v>885.9</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +7379,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +7420,7 @@
         <v>175.7</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +7461,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +7502,7 @@
         <v>113.1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +7543,7 @@
         <v>183.7</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1666,22 +7585,1104 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N29" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="AWS"/>
-        <filter val="Azure .NET Core 2 No Insight"/>
-        <filter val="Azure Js No Insight"/>
-        <filter val="Google"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:N29" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6827C9-033D-4075-8511-5DA7063F4ECA}">
+  <dimension ref="B1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>512</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>12500</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>142</v>
+      </c>
+      <c r="K2">
+        <v>1533</v>
+      </c>
+      <c r="L2">
+        <v>162</v>
+      </c>
+      <c r="M2">
+        <v>28.87</v>
+      </c>
+      <c r="N2">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>512</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>25000</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>140</v>
+      </c>
+      <c r="K3">
+        <v>8356</v>
+      </c>
+      <c r="L3">
+        <v>175</v>
+      </c>
+      <c r="M3">
+        <v>166.27</v>
+      </c>
+      <c r="N3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>75000</v>
+      </c>
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4">
+        <v>140</v>
+      </c>
+      <c r="K4">
+        <v>5633</v>
+      </c>
+      <c r="L4">
+        <v>179</v>
+      </c>
+      <c r="M4">
+        <v>146.77000000000001</v>
+      </c>
+      <c r="N4">
+        <v>753.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>12500</v>
+      </c>
+      <c r="I5">
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <v>118</v>
+      </c>
+      <c r="K5">
+        <v>1877</v>
+      </c>
+      <c r="L5">
+        <v>166</v>
+      </c>
+      <c r="M5">
+        <v>43.97</v>
+      </c>
+      <c r="N5">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>25000</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
+      </c>
+      <c r="J6">
+        <v>118</v>
+      </c>
+      <c r="K6">
+        <v>1586</v>
+      </c>
+      <c r="L6">
+        <v>171</v>
+      </c>
+      <c r="M6">
+        <v>50.6</v>
+      </c>
+      <c r="N6">
+        <v>260.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>75000</v>
+      </c>
+      <c r="I7">
+        <v>109</v>
+      </c>
+      <c r="J7">
+        <v>118</v>
+      </c>
+      <c r="K7">
+        <v>2502</v>
+      </c>
+      <c r="L7">
+        <v>196</v>
+      </c>
+      <c r="M7">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="N7">
+        <v>683.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>12500</v>
+      </c>
+      <c r="I8">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>140</v>
+      </c>
+      <c r="K8">
+        <v>2631</v>
+      </c>
+      <c r="L8">
+        <v>237</v>
+      </c>
+      <c r="M8">
+        <v>215.81</v>
+      </c>
+      <c r="N8">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
+        <v>25000</v>
+      </c>
+      <c r="I9">
+        <v>142</v>
+      </c>
+      <c r="J9">
+        <v>141</v>
+      </c>
+      <c r="K9">
+        <v>8238</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9">
+        <v>278.86</v>
+      </c>
+      <c r="N9">
+        <v>175.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>75000</v>
+      </c>
+      <c r="I10">
+        <v>196</v>
+      </c>
+      <c r="J10">
+        <v>125</v>
+      </c>
+      <c r="K10">
+        <v>16534</v>
+      </c>
+      <c r="L10">
+        <v>352</v>
+      </c>
+      <c r="M10">
+        <v>329.05</v>
+      </c>
+      <c r="N10">
+        <v>382.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>12500</v>
+      </c>
+      <c r="I11">
+        <v>110</v>
+      </c>
+      <c r="J11">
+        <v>118</v>
+      </c>
+      <c r="K11">
+        <v>1387</v>
+      </c>
+      <c r="L11">
+        <v>198</v>
+      </c>
+      <c r="M11">
+        <v>162.11000000000001</v>
+      </c>
+      <c r="N11">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <v>25000</v>
+      </c>
+      <c r="I12">
+        <v>136</v>
+      </c>
+      <c r="J12">
+        <v>118</v>
+      </c>
+      <c r="K12">
+        <v>14452</v>
+      </c>
+      <c r="L12">
+        <v>226</v>
+      </c>
+      <c r="M12">
+        <v>434.44</v>
+      </c>
+      <c r="N12">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>75000</v>
+      </c>
+      <c r="I13">
+        <v>176</v>
+      </c>
+      <c r="J13">
+        <v>119</v>
+      </c>
+      <c r="K13">
+        <v>19111</v>
+      </c>
+      <c r="L13">
+        <v>289</v>
+      </c>
+      <c r="M13">
+        <v>484.63</v>
+      </c>
+      <c r="N13">
+        <v>425.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:N13" xr:uid="{E22C4B8F-04F2-4800-8D65-434B9D70256C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A31C5A-B3E3-4869-B03E-91D11A664EF5}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>113.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>92.4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>260.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>183.7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>175.7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>248</v>
+      </c>
+      <c r="F4" s="5">
+        <v>868.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5">
+        <v>683.2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>425.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>382.3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>753.7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2244.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1077.7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>722</v>
+      </c>
+      <c r="D6" s="5">
+        <v>650.40000000000009</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1139.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3589.6000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19856B1D-180E-4AFD-9715-566E61E1937D}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>166</v>
+      </c>
+      <c r="C3" s="5">
+        <v>198</v>
+      </c>
+      <c r="D3" s="5">
+        <v>237</v>
+      </c>
+      <c r="E3" s="5">
+        <v>162</v>
+      </c>
+      <c r="F3" s="5">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5">
+        <v>226</v>
+      </c>
+      <c r="D4" s="5">
+        <v>250</v>
+      </c>
+      <c r="E4" s="5">
+        <v>175</v>
+      </c>
+      <c r="F4" s="5">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5">
+        <v>196</v>
+      </c>
+      <c r="C5" s="5">
+        <v>289</v>
+      </c>
+      <c r="D5" s="5">
+        <v>352</v>
+      </c>
+      <c r="E5" s="5">
+        <v>179</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>533</v>
+      </c>
+      <c r="C6" s="5">
+        <v>713</v>
+      </c>
+      <c r="D6" s="5">
+        <v>839</v>
+      </c>
+      <c r="E6" s="5">
+        <v>516</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBD229B-7A18-4A4B-ABCB-2581B738B8B7}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>118</v>
+      </c>
+      <c r="C3" s="5">
+        <v>118</v>
+      </c>
+      <c r="D3" s="5">
+        <v>140</v>
+      </c>
+      <c r="E3" s="5">
+        <v>142</v>
+      </c>
+      <c r="F3" s="5">
+        <v>518</v>
+      </c>
+      <c r="I3" s="4">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1877</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1387</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2631</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1533</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>118</v>
+      </c>
+      <c r="C4" s="5">
+        <v>118</v>
+      </c>
+      <c r="D4" s="5">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5">
+        <v>140</v>
+      </c>
+      <c r="F4" s="5">
+        <v>517</v>
+      </c>
+      <c r="I4" s="4">
+        <v>50</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1586</v>
+      </c>
+      <c r="K4" s="5">
+        <v>14452</v>
+      </c>
+      <c r="L4" s="5">
+        <v>8238</v>
+      </c>
+      <c r="M4" s="5">
+        <v>8356</v>
+      </c>
+      <c r="N4" s="5">
+        <v>32632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5">
+        <v>118</v>
+      </c>
+      <c r="C5" s="5">
+        <v>119</v>
+      </c>
+      <c r="D5" s="5">
+        <v>125</v>
+      </c>
+      <c r="E5" s="5">
+        <v>140</v>
+      </c>
+      <c r="F5" s="5">
+        <v>502</v>
+      </c>
+      <c r="I5" s="4">
+        <v>150</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2502</v>
+      </c>
+      <c r="K5" s="5">
+        <v>19111</v>
+      </c>
+      <c r="L5" s="5">
+        <v>16534</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5633</v>
+      </c>
+      <c r="N5" s="5">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>354</v>
+      </c>
+      <c r="C6" s="5">
+        <v>355</v>
+      </c>
+      <c r="D6" s="5">
+        <v>406</v>
+      </c>
+      <c r="E6" s="5">
+        <v>422</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1537</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5965</v>
+      </c>
+      <c r="K6" s="5">
+        <v>34950</v>
+      </c>
+      <c r="L6" s="5">
+        <v>27403</v>
+      </c>
+      <c r="M6" s="5">
+        <v>15522</v>
+      </c>
+      <c r="N6" s="5">
+        <v>83840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7872370-AE0B-422B-AD8C-2E5DD55471D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>